--- a/BaoCao_SystemTest_Login.xlsx
+++ b/BaoCao_SystemTest_Login.xlsx
@@ -12,7 +12,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="28" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="35" uniqueCount="32">
   <si>
     <t>ID</t>
   </si>
@@ -41,21 +41,42 @@
     <t>Đăng nhập sai mật khẩu</t>
   </si>
   <si>
-    <t>1. Nhập admin/sai_pass
+    <t>1. Nhập user/sai_pass
 2. Click Login
 3. Check URL &amp; Thông báo lỗi</t>
   </si>
   <si>
-    <t>User: admin, Pass: sai_pass</t>
-  </si>
-  <si>
-    <t>Ở lại trang Login &amp; Hiện lỗi 'alert-danger'</t>
-  </si>
-  <si>
-    <t>URL: Login.jsp | Lỗi: ❌ Sai tên đăng nhập hoặc mật khẩu!</t>
+    <t>User: admin, Pass: sai_pass_roi_nhe</t>
+  </si>
+  <si>
+    <t>Ở lại trang Login &amp; Hiện lỗi 'Mật khẩu không chính xác'</t>
+  </si>
+  <si>
+    <t>URL: Login.jsp | Lỗi: Mật khẩu không chính xác!</t>
   </si>
   <si>
     <t>PASS</t>
+  </si>
+  <si>
+    <t>ST_LOGIN_04</t>
+  </si>
+  <si>
+    <t>Đăng nhập tài khoản không tồn tại</t>
+  </si>
+  <si>
+    <t>1. Nhập user rác
+2. Nhập pass bất kỳ
+3. Click Login
+4. Check lỗi 'không tồn tại'</t>
+  </si>
+  <si>
+    <t>User: user_ao_ma_canada</t>
+  </si>
+  <si>
+    <t>Hiện lỗi 'Tài khoản không tồn tại'</t>
+  </si>
+  <si>
+    <t>URL: Login.jsp | Lỗi: Tài khoản không tồn tại!</t>
   </si>
   <si>
     <t>ST_LOGIN_01</t>
@@ -66,7 +87,7 @@
   <si>
     <t>1. Nhập admin/admin123
 2. Click Login
-3. Check URL</t>
+3. Check URL chuyển hướng</t>
   </si>
   <si>
     <t>User: admin, Pass: admin123</t>
@@ -86,7 +107,7 @@
   <si>
     <t>1. Nhập user/user123
 2. Click Login
-3. Check URL</t>
+3. Check URL chuyển hướng</t>
   </si>
   <si>
     <t>User: user, Pass: user123</t>
@@ -173,7 +194,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <dimension ref="A1:G4"/>
+  <dimension ref="A1:G5"/>
   <sheetViews>
     <sheetView workbookViewId="0" tabSelected="true"/>
   </sheetViews>
@@ -182,8 +203,8 @@
     <col min="1" max="1" width="13.28515625" customWidth="true" bestFit="true"/>
     <col min="2" max="2" width="33.01953125" customWidth="true" bestFit="true"/>
     <col min="3" max="3" width="27.1953125" customWidth="true" bestFit="true"/>
-    <col min="4" max="4" width="26.90234375" customWidth="true" bestFit="true"/>
-    <col min="5" max="5" width="37.5078125" customWidth="true" bestFit="true"/>
+    <col min="4" max="4" width="33.40234375" customWidth="true" bestFit="true"/>
+    <col min="5" max="5" width="49.7890625" customWidth="true" bestFit="true"/>
     <col min="6" max="6" width="67.4765625" customWidth="true" bestFit="true"/>
     <col min="7" max="7" width="10.62890625" customWidth="true" bestFit="true"/>
   </cols>
@@ -280,6 +301,29 @@
         <v>13</v>
       </c>
     </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>26</v>
+      </c>
+      <c r="B5" t="s">
+        <v>27</v>
+      </c>
+      <c r="C5" t="s">
+        <v>28</v>
+      </c>
+      <c r="D5" t="s">
+        <v>29</v>
+      </c>
+      <c r="E5" t="s">
+        <v>30</v>
+      </c>
+      <c r="F5" t="s">
+        <v>31</v>
+      </c>
+      <c r="G5" t="s" s="2">
+        <v>13</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
 </worksheet>
